--- a/IMPORTANT/JULIYA.xlsx
+++ b/IMPORTANT/JULIYA.xlsx
@@ -1079,7 +1079,7 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/JULIYA.xlsx
+++ b/IMPORTANT/JULIYA.xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1164,11 +1164,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>14740</v>
+        <v>5880</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>37</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1176,15 +1176,19 @@
       <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44834</v>
+      </c>
+      <c r="G6" s="8">
+        <v>8860</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>14740</v>
+        <v>5880</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1196,11 +1200,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>14740</v>
+        <v>5880</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1212,11 +1216,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>14740</v>
+        <v>5880</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1228,11 +1232,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>14740</v>
+        <v>5880</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1244,11 +1248,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>14740</v>
+        <v>5880</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1260,11 +1264,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>14740</v>
+        <v>5880</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1276,11 +1280,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>14740</v>
+        <v>5880</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1292,11 +1296,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>14740</v>
+        <v>5880</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1308,11 +1312,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>14740</v>
+        <v>5880</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1324,11 +1328,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>14740</v>
+        <v>5880</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1340,11 +1344,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>14740</v>
+        <v>5880</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1356,11 +1360,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>14740</v>
+        <v>5880</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1372,11 +1376,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>14740</v>
+        <v>5880</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1388,11 +1392,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>14740</v>
+        <v>5880</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1404,11 +1408,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>14740</v>
+        <v>5880</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1420,11 +1424,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>14740</v>
+        <v>5880</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1436,11 +1440,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>14740</v>
+        <v>5880</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1452,11 +1456,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>14740</v>
+        <v>5880</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1468,11 +1472,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>14740</v>
+        <v>5880</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1484,11 +1488,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>14740</v>
+        <v>5880</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1500,11 +1504,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>14740</v>
+        <v>5880</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1516,11 +1520,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>14740</v>
+        <v>5880</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1532,11 +1536,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>14740</v>
+        <v>5880</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1548,11 +1552,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>14740</v>
+        <v>5880</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1564,11 +1568,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>14740</v>
+        <v>5880</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1580,11 +1584,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>14740</v>
+        <v>5880</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1596,11 +1600,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>14740</v>
+        <v>5880</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1612,11 +1616,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>14740</v>
+        <v>5880</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1629,11 +1633,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>14740</v>
+        <v>5880</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1662,7 +1666,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>884</v>
+        <v>9744</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1685,7 +1689,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>14740</v>
+        <v>5880</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/JULIYA.xlsx
+++ b/IMPORTANT/JULIYA.xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>58</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44838</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44838</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44838</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44838</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44838</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44838</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/JULIYA.xlsx
+++ b/IMPORTANT/JULIYA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t xml:space="preserve">CUSTOMER NAME -  JULIYA </t>
-  </si>
-  <si>
-    <t>RD 7-8-22</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A5" sqref="A5:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1148,27 +1145,19 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44780</v>
-      </c>
-      <c r="B5" s="8">
-        <v>15624</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="8">
-        <v>884</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>125</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1176,19 +1165,15 @@
       <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>44834</v>
-      </c>
-      <c r="G6" s="8">
-        <v>8860</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1200,11 +1185,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1216,11 +1201,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1232,11 +1217,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1248,11 +1233,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1264,11 +1249,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1280,11 +1265,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1296,11 +1281,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1312,11 +1297,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1328,11 +1313,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1344,11 +1329,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1360,11 +1345,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1376,11 +1361,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1392,11 +1377,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1408,11 +1393,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1424,11 +1409,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1440,11 +1425,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1456,11 +1441,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1472,11 +1457,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1488,11 +1473,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1504,11 +1489,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1520,11 +1505,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1536,11 +1521,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1552,11 +1537,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1568,11 +1553,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1584,11 +1569,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1600,11 +1585,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1616,11 +1601,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1633,11 +1618,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44905</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1658,7 +1643,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>15624</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1666,7 +1651,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>9744</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1689,7 +1674,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/JULIYA.xlsx
+++ b/IMPORTANT/JULIYA.xlsx
@@ -1157,7 +1157,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/JULIYA.xlsx
+++ b/IMPORTANT/JULIYA.xlsx
@@ -1157,7 +1157,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/JULIYA.xlsx
+++ b/IMPORTANT/JULIYA.xlsx
@@ -1157,7 +1157,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
